--- a/trails/Book.xlsx
+++ b/trails/Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veera\onbording\trails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B0EEBD-EBE5-41C0-ACC5-BA8F5D3F4E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE672E23-1658-4976-B9EC-4DB0E7332F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{26AE1A14-72EE-48AC-9421-8E491BEEFC06}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="15">
   <si>
     <t>S.NO</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Scenario failed invalid data or elemet not found</t>
+  </si>
+  <si>
+    <t>Scenario passed</t>
   </si>
 </sst>
 </file>
@@ -425,7 +434,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +477,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -481,6 +490,12 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="0">
@@ -491,6 +506,12 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">

--- a/trails/Book.xlsx
+++ b/trails/Book.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="15">
   <si>
     <t>S.NO</t>
   </si>
@@ -491,10 +491,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
